--- a/testing.xlsx
+++ b/testing.xlsx
@@ -5,18 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.saliba\source\repos\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Source\Repos\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E756D7A-AEF8-4EC5-87CD-96CAC59E1E01}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7201CC58-4099-4B80-8AE6-AE5B27A65FEA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -756,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,42 +1125,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9B966-8D01-41CF-9A88-9E7386B5A810}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC507C95-0A57-4FB9-B979-D05AAF659051}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE284FD8-6776-4200-BAED-EC231B608E38}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Source\Repos\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7201CC58-4099-4B80-8AE6-AE5B27A65FEA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11565" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Market Data</t>
   </si>
@@ -47,6 +34,9 @@
     <t>YTD**</t>
   </si>
   <si>
+    <t>Data as at:</t>
+  </si>
+  <si>
     <t>Bitcoin (BTC)</t>
   </si>
   <si>
@@ -164,121 +154,99 @@
     <t>Est. next difficulty</t>
   </si>
   <si>
-    <r>
-      <t>TX confirmation time</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>x</t>
-    </r>
+    <t>TX confirmation timex</t>
   </si>
   <si>
     <t>TX per block (1w avg.)</t>
-  </si>
-  <si>
-    <t>Data as at:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="#,###.0,,,\ \b\n"/>
-    <numFmt numFmtId="166" formatCode="#,###.00,,,\ \b\n"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0\ \m\i\n"/>
+    <numFmt formatCode="0.0%" numFmtId="164"/>
+    <numFmt formatCode="#,###.0,,,\ \b\n" numFmtId="165"/>
+    <numFmt formatCode="#,###.00,,,\ \b\n" numFmtId="166"/>
+    <numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" numFmtId="167"/>
+    <numFmt formatCode="0.0" numFmtId="168"/>
+    <numFmt formatCode="0.0\ \m\i\n" numFmtId="169"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="8"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="7"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -373,96 +341,88 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="30">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="26" name="Good" xfId="1"/>
+    <cellStyle builtinId="27" name="Bad" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -750,30 +710,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="14.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" style="2" width="11.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="2" spans="1:7" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="3" spans="1:7" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -787,342 +752,345 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.25" r="4" spans="1:7" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="9" t="n"/>
+      <c r="G4" s="29" t="n">
+        <v>43417.00621974669</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.25" r="5" spans="1:7" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="8" t="n"/>
+      <c r="D5" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" spans="1:7" thickBot="1">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="7" spans="1:7" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" spans="1:7" thickBot="1">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="9" spans="1:7" thickBot="1">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="10" spans="1:7" thickBot="1">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="11" spans="1:7" thickBot="1">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="12" spans="1:7" thickBot="1">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" spans="1:7" thickBot="1">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="14" spans="1:7" thickBot="1">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="15" spans="1:7" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="16" spans="1:7" thickBot="1">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="17" spans="1:7" thickBot="1">
+      <c r="A17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="8" t="n"/>
+      <c r="D17" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="18" spans="1:7" thickBot="1">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="19" spans="1:7" thickBot="1">
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="11" t="n"/>
+      <c r="C19" s="12" t="n"/>
+      <c r="D19" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="20" spans="1:7" thickBot="1">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="21" spans="1:7" thickBot="1">
+      <c r="A21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="22" spans="1:7" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="15" t="n"/>
+      <c r="D22" s="15" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="23" spans="1:7" thickBot="1">
+      <c r="A23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="15" t="n"/>
+      <c r="D23" s="15" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="24" spans="1:7" thickBot="1">
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="15" t="n"/>
+      <c r="D24" s="15" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="25" spans="1:7" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="15" t="n"/>
+      <c r="D25" s="15" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="26" spans="1:7" thickBot="1">
+      <c r="A26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="15" t="n"/>
+      <c r="D26" s="15" t="n"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="n"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="29" spans="1:7" thickBot="1">
+      <c r="A29" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="30" spans="1:7" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.25" r="31" spans="1:7" thickBot="1">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="32" spans="1:7" thickBot="1">
+      <c r="A32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="8" t="n"/>
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="33" spans="1:7" thickBot="1">
+      <c r="A33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="8" t="n"/>
+      <c r="C33" s="8" t="n"/>
+      <c r="D33" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="34" spans="1:7" thickBot="1">
+      <c r="A34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="23" t="n"/>
+      <c r="C34" s="24" t="n"/>
+      <c r="D34" s="23" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="35" spans="1:7" thickBot="1">
+      <c r="A35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="23" t="n"/>
+      <c r="C35" s="24" t="n"/>
+      <c r="D35" s="23" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="36" spans="1:7" thickBot="1">
+      <c r="A36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="23" t="n"/>
+      <c r="C36" s="24" t="n"/>
+      <c r="D36" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="37" spans="1:7" thickBot="1">
+      <c r="A37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="26" t="n"/>
+      <c r="C37" s="23" t="n"/>
+      <c r="D37" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="38" spans="1:7" thickBot="1">
+      <c r="A38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="26" t="n"/>
+      <c r="C38" s="23" t="n"/>
+      <c r="D38" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="39" spans="1:7" thickBot="1">
+      <c r="A39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="26" t="n"/>
+      <c r="C39" s="23" t="n"/>
+      <c r="D39" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="40" spans="1:7" thickBot="1">
+      <c r="A40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="26" t="n"/>
+      <c r="C40" s="23" t="n"/>
+      <c r="D40" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="41" spans="1:7" thickBot="1">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="19" t="n"/>
+      <c r="C41" s="19" t="n"/>
+      <c r="D41" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="42" spans="1:7" thickBot="1">
+      <c r="A42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="20" t="n"/>
+      <c r="C42" s="15" t="n"/>
+      <c r="D42" s="21" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="43" spans="1:7" thickBot="1">
+      <c r="A43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="20" t="n"/>
+      <c r="C43" s="15" t="n"/>
+      <c r="D43" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="44" spans="1:7" thickBot="1">
+      <c r="A44" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="28" t="n"/>
+      <c r="D44" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="45" spans="1:7" thickBot="1">
+      <c r="A45" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-    </row>
-    <row r="35" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="25"/>
-    </row>
-    <row r="36" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-    </row>
-    <row r="37" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="27"/>
-    </row>
-    <row r="38" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="27"/>
-    </row>
-    <row r="39" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="27"/>
-    </row>
-    <row r="40" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="27"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-    </row>
-    <row r="45" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="28" t="n"/>
+      <c r="D45" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="46" spans="1:7" thickBot="1">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="10" t="n"/>
+      <c r="C46" s="10" t="n"/>
+      <c r="D46" s="10" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.saliba\Source\Repos\test2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A6D21-4CF0-4C0C-90E3-147203916CC0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11565" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Market Data</t>
   </si>
@@ -163,90 +176,91 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt formatCode="0.0%" numFmtId="164"/>
-    <numFmt formatCode="#,###.0,,,\ \b\n" numFmtId="165"/>
-    <numFmt formatCode="#,###.00,,,\ \b\n" numFmtId="166"/>
-    <numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" numFmtId="167"/>
-    <numFmt formatCode="0.0" numFmtId="168"/>
-    <numFmt formatCode="0.0\ \m\i\n" numFmtId="169"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,###.0,,,\ \b\n"/>
+    <numFmt numFmtId="166" formatCode="#,###.00,,,\ \b\n"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0\ \m\i\n"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="7"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -341,88 +355,98 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="26" name="Good" xfId="1"/>
-    <cellStyle builtinId="27" name="Bad" xfId="2"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -710,35 +734,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="14.140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" style="2" width="11.5703125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="10.7109375"/>
+    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:7" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="3" spans="1:7" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,203 +775,203 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.25" r="4" spans="1:7" thickBot="1">
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="n"/>
-      <c r="C4" s="8" t="n"/>
-      <c r="D4" s="9" t="n"/>
-      <c r="G4" s="29" t="n">
-        <v>43417.00621974669</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="23.25" r="5" spans="1:7" thickBot="1">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="G4" s="30">
+        <v>43417.41954349068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="8" t="n"/>
-      <c r="D5" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" spans="1:7" thickBot="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="8" t="n"/>
-      <c r="D6" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="7" spans="1:7" thickBot="1">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="8" t="n"/>
-      <c r="D7" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="8" spans="1:7" thickBot="1">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="8" t="n"/>
-      <c r="D8" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="9" spans="1:7" thickBot="1">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="10" spans="1:7" thickBot="1">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="11" spans="1:7" thickBot="1">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="12" spans="1:7" thickBot="1">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="13" spans="1:7" thickBot="1">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="14" spans="1:7" thickBot="1">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="15" spans="1:7" thickBot="1">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="16" spans="1:7" thickBot="1">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="17" spans="1:7" thickBot="1">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="8" t="n"/>
-      <c r="D17" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" spans="1:7" thickBot="1">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="10" t="n"/>
-      <c r="C18" s="10" t="n"/>
-      <c r="D18" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="19" spans="1:7" thickBot="1">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="20" spans="1:7" thickBot="1">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="10" t="n"/>
-      <c r="C20" s="10" t="n"/>
-      <c r="D20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="21" spans="1:7" thickBot="1">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10" t="n"/>
-      <c r="C21" s="10" t="n"/>
-      <c r="D21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="22" spans="1:7" thickBot="1">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="23" spans="1:7" thickBot="1">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="15" t="n"/>
-      <c r="D23" s="15" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="24" spans="1:7" thickBot="1">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="25" spans="1:7" thickBot="1">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="15" t="n"/>
-      <c r="D25" s="15" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="26" spans="1:7" thickBot="1">
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="16" t="n"/>
-      <c r="C26" s="15" t="n"/>
-      <c r="D26" s="15" t="n"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="n"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="B26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="29" spans="1:7" thickBot="1">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="30" spans="1:7" thickBot="1">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -965,132 +985,132 @@
         <v>33</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.25" r="31" spans="1:7" thickBot="1">
+    <row r="31" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="14" t="n"/>
-      <c r="C31" s="8" t="n"/>
-      <c r="D31" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="32" spans="1:7" thickBot="1">
+      <c r="B31" s="14"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="8" t="n"/>
-      <c r="C32" s="8" t="n"/>
-      <c r="D32" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="33" spans="1:7" thickBot="1">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="8" t="n"/>
-      <c r="C33" s="8" t="n"/>
-      <c r="D33" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="34" spans="1:7" thickBot="1">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="23" t="n"/>
-      <c r="C34" s="24" t="n"/>
-      <c r="D34" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="35" spans="1:7" thickBot="1">
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="23" t="n"/>
-      <c r="C35" s="24" t="n"/>
-      <c r="D35" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="36" spans="1:7" thickBot="1">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="23" t="n"/>
-      <c r="C36" s="24" t="n"/>
-      <c r="D36" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="37" spans="1:7" thickBot="1">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="26" t="n"/>
-      <c r="C37" s="23" t="n"/>
-      <c r="D37" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="38" spans="1:7" thickBot="1">
+      <c r="B37" s="26"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="26" t="n"/>
-      <c r="C38" s="23" t="n"/>
-      <c r="D38" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="39" spans="1:7" thickBot="1">
+      <c r="B38" s="26"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="26" t="n"/>
-      <c r="C39" s="23" t="n"/>
-      <c r="D39" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="40" spans="1:7" thickBot="1">
+      <c r="B39" s="26"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="26" t="n"/>
-      <c r="C40" s="23" t="n"/>
-      <c r="D40" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="41" spans="1:7" thickBot="1">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="19" t="n"/>
-      <c r="C41" s="19" t="n"/>
-      <c r="D41" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="42" spans="1:7" thickBot="1">
+      <c r="B40" s="26"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="20" t="n"/>
-      <c r="C42" s="15" t="n"/>
-      <c r="D42" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="43" spans="1:7" thickBot="1">
+      <c r="B42" s="20"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="20" t="n"/>
-      <c r="C43" s="15" t="n"/>
-      <c r="D43" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="44" spans="1:7" thickBot="1">
+      <c r="B43" s="20"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="27" t="n"/>
-      <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="45" spans="1:7" thickBot="1">
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="27" t="n"/>
-      <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="46" spans="1:7" thickBot="1">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="10" t="n"/>
-      <c r="C46" s="10" t="n"/>
-      <c r="D46" s="10" t="n"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron.saliba\Source\Repos\test2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A6D21-4CF0-4C0C-90E3-147203916CC0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11565" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="179021" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Market Data</t>
   </si>
@@ -176,91 +163,91 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="#,###.0,,,\ \b\n"/>
-    <numFmt numFmtId="166" formatCode="#,###.00,,,\ \b\n"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0\ \m\i\n"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt formatCode="0.0%" numFmtId="164"/>
+    <numFmt formatCode="#,###.0,,,\ \b\n" numFmtId="165"/>
+    <numFmt formatCode="#,###.00,,,\ \b\n" numFmtId="166"/>
+    <numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" numFmtId="167"/>
+    <numFmt formatCode="0.0" numFmtId="168"/>
+    <numFmt formatCode="0.0\ \m\i\n" numFmtId="169"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="170"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="8"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="7"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -355,98 +342,89 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="26" name="Good" xfId="1"/>
+    <cellStyle builtinId="27" name="Bad" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -734,31 +712,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="14.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" style="2" width="11.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="29" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="2" s="29" spans="1:7" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="3" s="29" spans="1:7" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -775,203 +757,203 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.25" r="4" s="29" spans="1:7" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="G4" s="30">
-        <v>43417.41954349068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="n"/>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="9" t="n"/>
+      <c r="G4" s="30" t="n">
+        <v>43417.56893061544</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.25" r="5" s="29" spans="1:7" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="8" t="n"/>
+      <c r="D5" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" s="29" spans="1:7" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="7" s="29" spans="1:7" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="8" t="n"/>
+      <c r="D7" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" s="29" spans="1:7" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="9" s="29" spans="1:7" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="10" s="29" spans="1:7" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="11" s="29" spans="1:7" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="12" s="29" spans="1:7" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" s="29" spans="1:7" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="8" t="n"/>
+      <c r="D13" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="14" s="29" spans="1:7" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="8" t="n"/>
+      <c r="D14" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="15" s="29" spans="1:7" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="16" s="29" spans="1:7" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="17" s="29" spans="1:7" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="8" t="n"/>
+      <c r="D17" s="9" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="18" s="29" spans="1:7" thickBot="1">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="19" s="29" spans="1:7" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11" t="n"/>
+      <c r="C19" s="12" t="n"/>
+      <c r="D19" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="20" s="29" spans="1:7" thickBot="1">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="21" s="29" spans="1:7" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="22" s="29" spans="1:7" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="n"/>
+      <c r="C22" s="15" t="n"/>
+      <c r="D22" s="15" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="23" s="29" spans="1:7" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="n"/>
+      <c r="C23" s="15" t="n"/>
+      <c r="D23" s="15" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="24" s="29" spans="1:7" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="15" t="n"/>
+      <c r="D24" s="15" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="25" s="29" spans="1:7" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="15" t="n"/>
+      <c r="D25" s="15" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="26" s="29" spans="1:7" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="15" t="n"/>
+      <c r="D26" s="15" t="n"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="n"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="29" s="29" spans="1:7" thickBot="1">
       <c r="A29" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="30" s="29" spans="1:7" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -985,132 +967,132 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.25" r="31" s="29" spans="1:7" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="14" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="32" s="29" spans="1:7" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="n"/>
+      <c r="C32" s="8" t="n"/>
+      <c r="D32" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="33" s="29" spans="1:7" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="n"/>
+      <c r="C33" s="8" t="n"/>
+      <c r="D33" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="34" s="29" spans="1:7" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="23" t="n"/>
+      <c r="C34" s="24" t="n"/>
+      <c r="D34" s="23" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="35" s="29" spans="1:7" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="23"/>
-    </row>
-    <row r="36" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="n"/>
+      <c r="C35" s="24" t="n"/>
+      <c r="D35" s="23" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="36" s="29" spans="1:7" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-    </row>
-    <row r="37" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="23" t="n"/>
+      <c r="C36" s="24" t="n"/>
+      <c r="D36" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="37" s="29" spans="1:7" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="25"/>
-    </row>
-    <row r="38" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="26" t="n"/>
+      <c r="C37" s="23" t="n"/>
+      <c r="D37" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="38" s="29" spans="1:7" thickBot="1">
       <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="25"/>
-    </row>
-    <row r="39" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="26" t="n"/>
+      <c r="C38" s="23" t="n"/>
+      <c r="D38" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="39" s="29" spans="1:7" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="25"/>
-    </row>
-    <row r="40" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="26" t="n"/>
+      <c r="C39" s="23" t="n"/>
+      <c r="D39" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="40" s="29" spans="1:7" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="26" t="n"/>
+      <c r="C40" s="23" t="n"/>
+      <c r="D40" s="25" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="41" s="29" spans="1:7" thickBot="1">
+      <c r="A41" s="6" t="n"/>
+      <c r="B41" s="19" t="n"/>
+      <c r="C41" s="19" t="n"/>
+      <c r="D41" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="42" s="29" spans="1:7" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="20" t="n"/>
+      <c r="C42" s="15" t="n"/>
+      <c r="D42" s="21" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="43" s="29" spans="1:7" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="20" t="n"/>
+      <c r="C43" s="15" t="n"/>
+      <c r="D43" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="44" s="29" spans="1:7" thickBot="1">
       <c r="A44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-    </row>
-    <row r="45" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="28" t="n"/>
+      <c r="D44" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="45" s="29" spans="1:7" thickBot="1">
       <c r="A45" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="28" t="n"/>
+      <c r="D45" s="28" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="46" s="29" spans="1:7" thickBot="1">
+      <c r="A46" s="6" t="n"/>
+      <c r="B46" s="10" t="n"/>
+      <c r="C46" s="10" t="n"/>
+      <c r="D46" s="10" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -765,7 +765,7 @@
       <c r="C4" s="8" t="n"/>
       <c r="D4" s="9" t="n"/>
       <c r="G4" s="30" t="n">
-        <v>43417.56893061544</v>
+        <v>43426.74317192844</v>
       </c>
     </row>
     <row customHeight="1" ht="23.25" r="5" s="29" spans="1:7" thickBot="1">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -761,11 +761,11 @@
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="n"/>
+      <c r="B4" s="7" t="s"/>
       <c r="C4" s="8" t="n"/>
       <c r="D4" s="9" t="n"/>
       <c r="G4" s="30" t="n">
-        <v>43426.74317192844</v>
+        <v>43427.64886148685</v>
       </c>
     </row>
     <row customHeight="1" ht="23.25" r="5" s="29" spans="1:7" thickBot="1">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="179021" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -720,7 +720,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -761,8 +761,12 @@
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s"/>
-      <c r="C4" s="8" t="n"/>
+      <c r="B4" s="7" t="n">
+        <v>3447.619495978291</v>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>0.038799</v>
+      </c>
       <c r="D4" s="9" t="n"/>
       <c r="G4" s="30" t="n">
         <v>43427.64886148685</v>
@@ -772,104 +776,156 @@
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="8" t="n"/>
+      <c r="B5" s="7" t="n">
+        <v>96.14439732466057</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>0.015292</v>
+      </c>
       <c r="D5" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="6" s="29" spans="1:7" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="8" t="n"/>
+      <c r="B6" s="7" t="n">
+        <v>0.3089628329058826</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>-0.008548</v>
+      </c>
       <c r="D6" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="23.25" r="7" s="29" spans="1:7" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="8" t="n"/>
+      <c r="B7" s="7" t="n">
+        <v>139.6500783108671</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>-0.139421</v>
+      </c>
       <c r="D7" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="8" s="29" spans="1:7" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="8" t="n"/>
+      <c r="B8" s="7" t="n">
+        <v>2.315249386004809</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>-0.201823</v>
+      </c>
       <c r="D8" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="23.25" r="9" s="29" spans="1:7" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="8" t="n"/>
+      <c r="B9" s="7" t="n">
+        <v>0.1325368039892147</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>0.050858</v>
+      </c>
       <c r="D9" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="23.25" r="10" s="29" spans="1:7" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="8" t="n"/>
+      <c r="B10" s="7" t="n">
+        <v>27.50604714588431</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>0.053914</v>
+      </c>
       <c r="D10" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="23.25" r="11" s="29" spans="1:7" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="8" t="n"/>
+      <c r="B11" s="7" t="n">
+        <v>0.03431438367634818</v>
+      </c>
+      <c r="C11" s="8" t="n">
+        <v>0.090977</v>
+      </c>
       <c r="D11" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="23.25" r="12" s="29" spans="1:7" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="8" t="n"/>
+      <c r="B12" s="7" t="n">
+        <v>48.18662080424951</v>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>0.017856</v>
+      </c>
       <c r="D12" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="13" s="29" spans="1:7" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="8" t="n"/>
+      <c r="B13" s="7" t="n">
+        <v>0.01223422496180562</v>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>0.162836</v>
+      </c>
       <c r="D13" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="23.25" r="14" s="29" spans="1:7" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="8" t="n"/>
+      <c r="B14" s="7" t="n">
+        <v>0.2431438567385526</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>0.025515</v>
+      </c>
       <c r="D14" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="23.25" r="15" s="29" spans="1:7" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="8" t="n"/>
+      <c r="B15" s="7" t="n">
+        <v>74.94446677276046</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>-0.035842</v>
+      </c>
       <c r="D15" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="16" s="29" spans="1:7" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="8" t="n"/>
+      <c r="B16" s="7" t="n">
+        <v>4.06492082383174</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>0.061128</v>
+      </c>
       <c r="D16" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="23.25" r="17" s="29" spans="1:7" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="8" t="n"/>
+      <c r="B17" s="7" t="n">
+        <v>63.24588631238274</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>0.089213</v>
+      </c>
       <c r="D17" s="9" t="n"/>
     </row>
     <row customHeight="1" ht="15.75" r="18" s="29" spans="1:7" thickBot="1">

--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FA321B-BFB8-4163-ADB5-E11E17BA0E63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11565" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Market Data</t>
   </si>
@@ -163,91 +169,91 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt formatCode="0.0%" numFmtId="164"/>
-    <numFmt formatCode="#,###.0,,,\ \b\n" numFmtId="165"/>
-    <numFmt formatCode="#,###.00,,,\ \b\n" numFmtId="166"/>
-    <numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" numFmtId="167"/>
-    <numFmt formatCode="0.0" numFmtId="168"/>
-    <numFmt formatCode="0.0\ \m\i\n" numFmtId="169"/>
-    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="170"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,###.0,,,\ \b\n"/>
+    <numFmt numFmtId="166" formatCode="#,###.00,,,\ \b\n"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0\ \m\i\n"/>
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="7"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -262,14 +268,8 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -278,153 +278,120 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="26" name="Good" xfId="1"/>
-    <cellStyle builtinId="27" name="Bad" xfId="2"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -712,443 +679,448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="14.140625"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" style="2" width="11.5703125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="29" width="18.28515625"/>
+    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" s="29" spans="1:7" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="3" s="29" spans="1:7" thickBot="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.25" r="4" s="29" spans="1:7" thickBot="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>3447.619495978291</v>
-      </c>
-      <c r="C4" s="8" t="n">
-        <v>0.038799</v>
-      </c>
-      <c r="D4" s="9" t="n"/>
-      <c r="G4" s="30" t="n">
+      <c r="B4" s="13">
+        <v>3447.6194959782911</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3.8799E-2</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="G4" s="5">
         <v>43427.64886148685</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.25" r="5" s="29" spans="1:7" thickBot="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>96.14439732466057</v>
-      </c>
-      <c r="C5" s="8" t="n">
-        <v>0.015292</v>
-      </c>
-      <c r="D5" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" s="29" spans="1:7" thickBot="1">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="13">
+        <v>96.144397324660574</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1.5292E-2</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>0.3089628329058826</v>
-      </c>
-      <c r="C6" s="8" t="n">
-        <v>-0.008548</v>
-      </c>
-      <c r="D6" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="7" s="29" spans="1:7" thickBot="1">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="13">
+        <v>0.30896283290588261</v>
+      </c>
+      <c r="C6" s="14">
+        <v>-8.548E-3</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="n">
-        <v>139.6500783108671</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>-0.139421</v>
-      </c>
-      <c r="D7" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="8" s="29" spans="1:7" thickBot="1">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="13">
+        <v>139.65007831086709</v>
+      </c>
+      <c r="C7" s="14">
+        <v>-0.13942099999999999</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>2.315249386004809</v>
-      </c>
-      <c r="C8" s="8" t="n">
+      <c r="B8" s="13">
+        <v>2.3152493860048091</v>
+      </c>
+      <c r="C8" s="14">
         <v>-0.201823</v>
       </c>
-      <c r="D8" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="9" s="29" spans="1:7" thickBot="1">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>0.1325368039892147</v>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>0.050858</v>
-      </c>
-      <c r="D9" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="10" s="29" spans="1:7" thickBot="1">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="13">
+        <v>0.13253680398921469</v>
+      </c>
+      <c r="C9" s="14">
+        <v>5.0858E-2</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="13">
         <v>27.50604714588431</v>
       </c>
-      <c r="C10" s="8" t="n">
-        <v>0.053914</v>
-      </c>
-      <c r="D10" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="11" s="29" spans="1:7" thickBot="1">
-      <c r="A11" s="6" t="s">
+      <c r="C10" s="14">
+        <v>5.3913999999999997E-2</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="n">
-        <v>0.03431438367634818</v>
-      </c>
-      <c r="C11" s="8" t="n">
-        <v>0.090977</v>
-      </c>
-      <c r="D11" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="12" s="29" spans="1:7" thickBot="1">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="13">
+        <v>3.4314383676348183E-2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>9.0977000000000002E-2</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>48.18662080424951</v>
-      </c>
-      <c r="C12" s="8" t="n">
-        <v>0.017856</v>
-      </c>
-      <c r="D12" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="13" s="29" spans="1:7" thickBot="1">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="13">
+        <v>48.186620804249507</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1.7856E-2</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>0.01223422496180562</v>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>0.162836</v>
-      </c>
-      <c r="D13" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="14" s="29" spans="1:7" thickBot="1">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="13">
+        <v>1.223422496180562E-2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.16283600000000001</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="13">
         <v>0.2431438567385526</v>
       </c>
-      <c r="C14" s="8" t="n">
-        <v>0.025515</v>
-      </c>
-      <c r="D14" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="15" s="29" spans="1:7" thickBot="1">
-      <c r="A15" s="6" t="s">
+      <c r="C14" s="14">
+        <v>2.5514999999999999E-2</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>74.94446677276046</v>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>-0.035842</v>
-      </c>
-      <c r="D15" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="16" s="29" spans="1:7" thickBot="1">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="13">
+        <v>74.944466772760464</v>
+      </c>
+      <c r="C15" s="14">
+        <v>-3.5841999999999999E-2</v>
+      </c>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>4.06492082383174</v>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>0.061128</v>
-      </c>
-      <c r="D16" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="17" s="29" spans="1:7" thickBot="1">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="13">
+        <v>4.0649208238317396</v>
+      </c>
+      <c r="C16" s="14">
+        <v>6.1128000000000002E-2</v>
+      </c>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7" t="n">
-        <v>63.24588631238274</v>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>0.089213</v>
-      </c>
-      <c r="D17" s="9" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" s="29" spans="1:7" thickBot="1">
-      <c r="A18" s="6" t="n"/>
-      <c r="B18" s="10" t="n"/>
-      <c r="C18" s="10" t="n"/>
-      <c r="D18" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="19" s="29" spans="1:7" thickBot="1">
-      <c r="A19" s="6" t="s">
+      <c r="B17" s="13">
+        <v>63.245886312382737</v>
+      </c>
+      <c r="C17" s="14">
+        <v>8.9213000000000001E-2</v>
+      </c>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="20" s="29" spans="1:7" thickBot="1">
-      <c r="A20" s="6" t="n"/>
-      <c r="B20" s="10" t="n"/>
-      <c r="C20" s="10" t="n"/>
-      <c r="D20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="21" s="29" spans="1:7" thickBot="1">
-      <c r="A21" s="13" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10" t="n"/>
-      <c r="C21" s="10" t="n"/>
-      <c r="D21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="22" s="29" spans="1:7" thickBot="1">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="14" t="n"/>
-      <c r="C22" s="15" t="n"/>
-      <c r="D22" s="15" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="23" s="29" spans="1:7" thickBot="1">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="14" t="n"/>
-      <c r="C23" s="15" t="n"/>
-      <c r="D23" s="15" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="24" s="29" spans="1:7" thickBot="1">
-      <c r="A24" s="6" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="15" t="n"/>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="25" s="29" spans="1:7" thickBot="1">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="15" t="n"/>
-      <c r="D25" s="15" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="26" s="29" spans="1:7" thickBot="1">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="16" t="n"/>
-      <c r="C26" s="15" t="n"/>
-      <c r="D26" s="15" t="n"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="n"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="29" s="29" spans="1:7" thickBot="1">
-      <c r="A29" s="17" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="30" s="29" spans="1:7" thickBot="1">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.25" r="31" s="29" spans="1:7" thickBot="1">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="14" t="n"/>
-      <c r="C31" s="8" t="n"/>
-      <c r="D31" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="32" s="29" spans="1:7" thickBot="1">
-      <c r="A32" s="6" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="8" t="n"/>
-      <c r="C32" s="8" t="n"/>
-      <c r="D32" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="33" s="29" spans="1:7" thickBot="1">
-      <c r="A33" s="6" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="8" t="n"/>
-      <c r="C33" s="8" t="n"/>
-      <c r="D33" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="34" s="29" spans="1:7" thickBot="1">
-      <c r="A34" s="6" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="23" t="n"/>
-      <c r="C34" s="24" t="n"/>
-      <c r="D34" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="35" s="29" spans="1:7" thickBot="1">
-      <c r="A35" s="6" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="26"/>
+    </row>
+    <row r="35" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="23" t="n"/>
-      <c r="C35" s="24" t="n"/>
-      <c r="D35" s="23" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="36" s="29" spans="1:7" thickBot="1">
-      <c r="A36" s="6" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="26"/>
+    </row>
+    <row r="36" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="23" t="n"/>
-      <c r="C36" s="24" t="n"/>
-      <c r="D36" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="37" s="29" spans="1:7" thickBot="1">
-      <c r="A37" s="6" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="26" t="n"/>
-      <c r="C37" s="23" t="n"/>
-      <c r="D37" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="38" s="29" spans="1:7" thickBot="1">
-      <c r="A38" s="6" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="26" t="n"/>
-      <c r="C38" s="23" t="n"/>
-      <c r="D38" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="39" s="29" spans="1:7" thickBot="1">
-      <c r="A39" s="6" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="26" t="n"/>
-      <c r="C39" s="23" t="n"/>
-      <c r="D39" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="40" s="29" spans="1:7" thickBot="1">
-      <c r="A40" s="6" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="26" t="n"/>
-      <c r="C40" s="23" t="n"/>
-      <c r="D40" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="41" s="29" spans="1:7" thickBot="1">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="19" t="n"/>
-      <c r="C41" s="19" t="n"/>
-      <c r="D41" s="19" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="42" s="29" spans="1:7" thickBot="1">
-      <c r="A42" s="6" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="20" t="n"/>
-      <c r="C42" s="15" t="n"/>
-      <c r="D42" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="23.25" r="43" s="29" spans="1:7" thickBot="1">
-      <c r="A43" s="6" t="s">
+      <c r="B42" s="29"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="20" t="n"/>
-      <c r="C43" s="15" t="n"/>
-      <c r="D43" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="44" s="29" spans="1:7" thickBot="1">
-      <c r="A44" s="6" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="27" t="n"/>
-      <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="34.5" r="45" s="29" spans="1:7" thickBot="1">
-      <c r="A45" s="6" t="s">
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+    </row>
+    <row r="45" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="27" t="n"/>
-      <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="46" s="29" spans="1:7" thickBot="1">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="10" t="n"/>
-      <c r="C46" s="10" t="n"/>
-      <c r="D46" s="10" t="n"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FA321B-BFB8-4163-ADB5-E11E17BA0E63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11565" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Market Data</t>
   </si>
@@ -169,91 +163,91 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="#,###.0,,,\ \b\n"/>
-    <numFmt numFmtId="166" formatCode="#,###.00,,,\ \b\n"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0\ \m\i\n"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt formatCode="0.0%" numFmtId="164"/>
+    <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="165"/>
+    <numFmt formatCode="#,###.0,,,\ \b\n" numFmtId="166"/>
+    <numFmt formatCode="#,###.00,,,\ \b\n" numFmtId="167"/>
+    <numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" numFmtId="168"/>
+    <numFmt formatCode="0.0" numFmtId="169"/>
+    <numFmt formatCode="0.0\ \m\i\n" numFmtId="170"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="8"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="8"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="7"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -294,104 +288,99 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="35">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="26" name="Good" xfId="1"/>
+    <cellStyle builtinId="27" name="Bad" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -679,448 +668,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="14.140625"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" style="6" width="11.5703125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="18.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row customHeight="1" ht="15.75" r="2" s="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row customHeight="1" ht="15.75" r="3" s="2" spans="1:7">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row customHeight="1" ht="23.25" r="4" s="2" spans="1:7">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13">
-        <v>3447.6194959782911</v>
-      </c>
-      <c r="C4" s="14">
-        <v>3.8799E-2</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="G4" s="5">
-        <v>43427.64886148685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="10" t="n">
+        <v>3515.458185686551</v>
+      </c>
+      <c r="C4" s="31" t="n">
+        <v>0.065197</v>
+      </c>
+      <c r="D4" s="11" t="n"/>
+      <c r="G4" s="32" t="n">
+        <v>43438.42369303636</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.25" r="5" s="2" spans="1:7">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13">
-        <v>96.144397324660574</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1.5292E-2</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="10" t="n">
+        <v>98.14292676840479</v>
+      </c>
+      <c r="C5" s="31" t="n">
+        <v>0.053612</v>
+      </c>
+      <c r="D5" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" s="2" spans="1:7">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13">
-        <v>0.30896283290588261</v>
-      </c>
-      <c r="C6" s="14">
-        <v>-8.548E-3</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="10" t="n">
+        <v>0.3133787981314524</v>
+      </c>
+      <c r="C6" s="31" t="n">
+        <v>0.017541</v>
+      </c>
+      <c r="D6" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="7" s="2" spans="1:7">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13">
-        <v>139.65007831086709</v>
-      </c>
-      <c r="C7" s="14">
-        <v>-0.13942099999999999</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="10" t="n">
+        <v>137.513123668972</v>
+      </c>
+      <c r="C7" s="31" t="n">
+        <v>-0.150739</v>
+      </c>
+      <c r="D7" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" s="2" spans="1:7">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13">
-        <v>2.3152493860048091</v>
-      </c>
-      <c r="C8" s="14">
-        <v>-0.201823</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="10" t="n">
+        <v>2.244138837902261</v>
+      </c>
+      <c r="C8" s="31" t="n">
+        <v>-0.197998</v>
+      </c>
+      <c r="D8" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="9" s="2" spans="1:7">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13">
-        <v>0.13253680398921469</v>
-      </c>
-      <c r="C9" s="14">
-        <v>5.0858E-2</v>
-      </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B9" s="10" t="n">
+        <v>0.134161617686175</v>
+      </c>
+      <c r="C9" s="31" t="n">
+        <v>0.076636</v>
+      </c>
+      <c r="D9" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="10" s="2" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13">
-        <v>27.50604714588431</v>
-      </c>
-      <c r="C10" s="14">
-        <v>5.3913999999999997E-2</v>
-      </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="B10" s="10" t="n">
+        <v>27.98763452610593</v>
+      </c>
+      <c r="C10" s="31" t="n">
+        <v>0.070141</v>
+      </c>
+      <c r="D10" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="11" s="2" spans="1:7">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13">
-        <v>3.4314383676348183E-2</v>
-      </c>
-      <c r="C11" s="14">
-        <v>9.0977000000000002E-2</v>
-      </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="10" t="n">
+        <v>0.03452266883894937</v>
+      </c>
+      <c r="C11" s="31" t="n">
+        <v>0.110362</v>
+      </c>
+      <c r="D11" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="12" s="2" spans="1:7">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13">
-        <v>48.186620804249507</v>
-      </c>
-      <c r="C12" s="14">
-        <v>1.7856E-2</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="10" t="n">
+        <v>49.99479101355664</v>
+      </c>
+      <c r="C12" s="31" t="n">
+        <v>0.060761</v>
+      </c>
+      <c r="D12" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" s="2" spans="1:7">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="13">
-        <v>1.223422496180562E-2</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.16283600000000001</v>
-      </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B13" s="10" t="n">
+        <v>0.01259432973346905</v>
+      </c>
+      <c r="C13" s="31" t="n">
+        <v>0.195496</v>
+      </c>
+      <c r="D13" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="14" s="2" spans="1:7">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="13">
-        <v>0.2431438567385526</v>
-      </c>
-      <c r="C14" s="14">
-        <v>2.5514999999999999E-2</v>
-      </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="B14" s="10" t="n">
+        <v>0.2494959191987562</v>
+      </c>
+      <c r="C14" s="31" t="n">
+        <v>0.058027</v>
+      </c>
+      <c r="D14" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="15" s="2" spans="1:7">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13">
-        <v>74.944466772760464</v>
-      </c>
-      <c r="C15" s="14">
-        <v>-3.5841999999999999E-2</v>
-      </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="10" t="n">
+        <v>76.11744435396218</v>
+      </c>
+      <c r="C15" s="31" t="n">
+        <v>-0.014104</v>
+      </c>
+      <c r="D15" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="16" s="2" spans="1:7">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="13">
-        <v>4.0649208238317396</v>
-      </c>
-      <c r="C16" s="14">
-        <v>6.1128000000000002E-2</v>
-      </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="B16" s="10" t="n">
+        <v>4.126379953857502</v>
+      </c>
+      <c r="C16" s="31" t="n">
+        <v>0.086607</v>
+      </c>
+      <c r="D16" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="17" s="2" spans="1:7">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="13">
-        <v>63.245886312382737</v>
-      </c>
-      <c r="C17" s="14">
-        <v>8.9213000000000001E-2</v>
-      </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="B17" s="10" t="n">
+        <v>64.55791455088678</v>
+      </c>
+      <c r="C17" s="31" t="n">
+        <v>0.105121</v>
+      </c>
+      <c r="D17" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="18" s="2" spans="1:7">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="12" t="n"/>
+      <c r="C18" s="12" t="n"/>
+      <c r="D18" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="19" s="2" spans="1:7">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="14" t="n"/>
+      <c r="D19" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="20" s="2" spans="1:7">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="12" t="n"/>
+      <c r="C20" s="12" t="n"/>
+      <c r="D20" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="21" s="2" spans="1:7">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="B21" s="12" t="n"/>
+      <c r="C21" s="12" t="n"/>
+      <c r="D21" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="22" s="2" spans="1:7">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="24" t="n"/>
+      <c r="C22" s="33" t="n"/>
+      <c r="D22" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="23" s="2" spans="1:7">
+      <c r="A23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="B23" s="24" t="n"/>
+      <c r="C23" s="33" t="n"/>
+      <c r="D23" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="24" s="2" spans="1:7">
+      <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="B24" s="33" t="n"/>
+      <c r="C24" s="33" t="n"/>
+      <c r="D24" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="25" s="2" spans="1:7">
+      <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="B25" s="26" t="n"/>
+      <c r="C25" s="33" t="n"/>
+      <c r="D25" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="26" s="2" spans="1:7">
+      <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="B26" s="26" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="33" t="n"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="n"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="29" s="2" spans="1:7">
+      <c r="A29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="30" s="2" spans="1:7">
+      <c r="A30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+    <row customHeight="1" ht="23.25" r="31" s="2" spans="1:7">
+      <c r="A31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="25"/>
-    </row>
-    <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="B31" s="24" t="n"/>
+      <c r="C31" s="31" t="n"/>
+      <c r="D31" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="32" s="2" spans="1:7">
+      <c r="A32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="B32" s="31" t="n"/>
+      <c r="C32" s="31" t="n"/>
+      <c r="D32" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="33" s="2" spans="1:7">
+      <c r="A33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="B33" s="31" t="n"/>
+      <c r="C33" s="31" t="n"/>
+      <c r="D33" s="18" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="34" s="2" spans="1:7">
+      <c r="A34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="26"/>
-    </row>
-    <row r="35" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="B34" s="19" t="n"/>
+      <c r="C34" s="34" t="n"/>
+      <c r="D34" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="35" s="2" spans="1:7">
+      <c r="A35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="26"/>
-    </row>
-    <row r="36" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="B35" s="19" t="n"/>
+      <c r="C35" s="34" t="n"/>
+      <c r="D35" s="19" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="36" s="2" spans="1:7">
+      <c r="A36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="B36" s="19" t="n"/>
+      <c r="C36" s="34" t="n"/>
+      <c r="D36" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="37" s="2" spans="1:7">
+      <c r="A37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="19" t="n"/>
+      <c r="D37" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="38" s="2" spans="1:7">
+      <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="B38" s="28" t="n"/>
+      <c r="C38" s="19" t="n"/>
+      <c r="D38" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="39" s="2" spans="1:7">
+      <c r="A39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="B39" s="28" t="n"/>
+      <c r="C39" s="19" t="n"/>
+      <c r="D39" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="40" s="2" spans="1:7">
+      <c r="A40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-    </row>
-    <row r="42" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="B40" s="28" t="n"/>
+      <c r="C40" s="19" t="n"/>
+      <c r="D40" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="41" s="2" spans="1:7">
+      <c r="A41" s="9" t="n"/>
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="42" s="2" spans="1:7">
+      <c r="A42" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="B42" s="20" t="n"/>
+      <c r="C42" s="33" t="n"/>
+      <c r="D42" s="33" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="43" s="2" spans="1:7">
+      <c r="A43" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="30"/>
-    </row>
-    <row r="44" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="B43" s="20" t="n"/>
+      <c r="C43" s="33" t="n"/>
+      <c r="D43" s="21" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="44" s="2" spans="1:7">
+      <c r="A44" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-    </row>
-    <row r="45" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="B44" s="29" t="n"/>
+      <c r="C44" s="30" t="n"/>
+      <c r="D44" s="30" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="45" s="2" spans="1:7">
+      <c r="A45" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="B45" s="29" t="n"/>
+      <c r="C45" s="30" t="n"/>
+      <c r="D45" s="30" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="46" s="2" spans="1:7">
+      <c r="A46" s="3" t="n"/>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>